--- a/experiment raw data/data_valence_l1_english_2026.xlsx
+++ b/experiment raw data/data_valence_l1_english_2026.xlsx
@@ -131,7 +131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM44"/>
+  <dimension ref="A1:BM49"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="4" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -1072,7 +1072,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3" t="n">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="4" t="n">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -1201,7 +1201,7 @@
         <v>49</v>
       </c>
       <c r="BM5" s="4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1312,7 +1312,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3" t="n">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="4" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1415,7 +1415,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3" t="n">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="4" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="4" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1716,10 +1716,10 @@
         <v>30</v>
       </c>
       <c r="BL9" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM9" s="4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="BC10" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3" t="n">
@@ -1907,10 +1907,10 @@
         <v>27</v>
       </c>
       <c r="BL10" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BM10" s="4" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="4" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="4" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -2199,7 +2199,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3" t="n">
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="4" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="4" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="4" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -3055,7 +3055,7 @@
         <v>32</v>
       </c>
       <c r="BM21" s="4" t="n">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -3168,7 +3168,7 @@
         <v>32</v>
       </c>
       <c r="BM22" s="4" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="4" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="4" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="4" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -3829,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="BM27" s="4" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="4" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -4289,7 +4289,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3" t="n">
@@ -4315,7 +4315,7 @@
         <v>8</v>
       </c>
       <c r="BM31" s="4" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -4499,10 +4499,10 @@
         <v>21</v>
       </c>
       <c r="BL32" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM32" s="4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -4686,10 +4686,10 @@
         <v>21</v>
       </c>
       <c r="BL33" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM33" s="4" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -5039,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="BM35" s="4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -5224,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="BM36" s="4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -5383,7 +5383,7 @@
         <v>20</v>
       </c>
       <c r="BC37" s="1" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BD37" s="3"/>
       <c r="BE37" s="3" t="n">
@@ -5410,7 +5410,7 @@
         <v>27</v>
       </c>
       <c r="BL37" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM37" s="4" t="n">
         <v>0.67</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="BM38" s="4" t="n">
-        <v>0.94</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -5691,7 +5691,7 @@
         <v>33</v>
       </c>
       <c r="BC39" s="1" t="n">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3" t="n">
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="BM39" s="4" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -5872,7 +5872,7 @@
         <v>22</v>
       </c>
       <c r="BC40" s="1" t="n">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3" t="n">
@@ -6047,7 +6047,7 @@
         <v>19</v>
       </c>
       <c r="BC41" s="1" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3" t="n">
@@ -6256,7 +6256,7 @@
         <v>59</v>
       </c>
       <c r="BC42" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BD42" s="3"/>
       <c r="BE42" s="3" t="n">
@@ -6449,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="BC43" s="1" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BD43" s="3"/>
       <c r="BE43" s="3" t="n">
@@ -6476,10 +6476,10 @@
         <v>14</v>
       </c>
       <c r="BL43" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM43" s="4" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -6636,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="BC44" s="1" t="n">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="BD44" s="3"/>
       <c r="BE44" s="3" t="n">
@@ -6663,10 +6663,853 @@
         <v>21</v>
       </c>
       <c r="BL44" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM44" s="4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>46028.442048611</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3" t="n">
+        <v>46028.442094907</v>
+      </c>
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>46028.544479167</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="BM44" s="4" t="n">
-        <v>1.3</v>
+      <c r="V46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO46" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS46" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT46" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU46" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX46" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC46" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3" t="n">
+        <v>46028.546134259</v>
+      </c>
+      <c r="BF46" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI46" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ46" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK46" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL46" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM46" s="4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>46028.643912037</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="AJ47" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AK47" s="2" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO47" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ47" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR47" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS47" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT47" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV47" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX47" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AY47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA47" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB47" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC47" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3" t="n">
+        <v>46028.645729167</v>
+      </c>
+      <c r="BF47" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI47" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ47" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK47" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="BL47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM47" s="4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>46028.650578704</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2" t="inlineStr">
+        <is>
+          <t>französisch</t>
+        </is>
+      </c>
+      <c r="AJ48" s="2" t="inlineStr">
+        <is>
+          <t>latein</t>
+        </is>
+      </c>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="AO48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP48" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS48" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT48" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU48" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV48" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW48" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX48" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AY48" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ48" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA48" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB48" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC48" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3" t="n">
+        <v>46028.660520833</v>
+      </c>
+      <c r="BF48" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ48" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK48" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="BL48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM48" s="4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="A49" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>46028.670497685</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2" t="inlineStr">
+        <is>
+          <t>french</t>
+        </is>
+      </c>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="AO49" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT49" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW49" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX49" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB49" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC49" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3" t="n">
+        <v>46028.683125</v>
+      </c>
+      <c r="BF49" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK49" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM49" s="4" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/experiment raw data/data_valence_l1_english_2026.xlsx
+++ b/experiment raw data/data_valence_l1_english_2026.xlsx
@@ -131,7 +131,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM49"/>
+  <dimension ref="A1:BM74"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="BM3" s="4" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -1072,7 +1072,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3" t="n">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="4" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -1201,7 +1201,7 @@
         <v>49</v>
       </c>
       <c r="BM5" s="4" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1312,7 +1312,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3" t="n">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="4" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1415,7 +1415,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3" t="n">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="BM7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="4" t="n">
-        <v>2.67</v>
+        <v>1.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1716,10 +1716,10 @@
         <v>30</v>
       </c>
       <c r="BL9" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BM9" s="4" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="BC10" s="1" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3" t="n">
@@ -1907,10 +1907,10 @@
         <v>27</v>
       </c>
       <c r="BL10" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BM10" s="4" t="n">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1987,7 +1987,7 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3" t="n">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="4" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="4" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -2199,7 +2199,7 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3" t="n">
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="4" t="n">
-        <v>1.35</v>
+        <v>0.85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="BM14" s="4" t="n">
-        <v>2.67</v>
+        <v>1.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="BM15" s="4" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="BM16" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="BM19" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -3029,7 +3029,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
       <c r="BC21" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3" t="n">
@@ -3052,10 +3052,10 @@
         <v>33</v>
       </c>
       <c r="BL21" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BM21" s="4" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -3142,7 +3142,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
       <c r="BC22" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3" t="n">
@@ -3165,10 +3165,10 @@
         <v>33</v>
       </c>
       <c r="BL22" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BM22" s="4" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="4" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="4" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="BM25" s="4" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="4" t="n">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -3826,10 +3826,10 @@
         <v>36</v>
       </c>
       <c r="BL27" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BM27" s="4" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="4" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -4114,7 +4114,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
       <c r="BC30" s="1" t="n">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3" t="n">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -4312,10 +4312,10 @@
         <v>20</v>
       </c>
       <c r="BL31" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM31" s="4" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -4499,10 +4499,10 @@
         <v>21</v>
       </c>
       <c r="BL32" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM32" s="4" t="n">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -4686,10 +4686,10 @@
         <v>21</v>
       </c>
       <c r="BL33" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM33" s="4" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -4834,7 +4834,7 @@
         <v>11</v>
       </c>
       <c r="BC34" s="1" t="n">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="BD34" s="3"/>
       <c r="BE34" s="3" t="n">
@@ -4861,10 +4861,10 @@
         <v>36</v>
       </c>
       <c r="BL34" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BM34" s="4" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -5009,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="BC35" s="1" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="BD35" s="3"/>
       <c r="BE35" s="3" t="n">
@@ -5036,10 +5036,10 @@
         <v>36</v>
       </c>
       <c r="BL35" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BM35" s="4" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -5194,7 +5194,7 @@
         <v>17</v>
       </c>
       <c r="BC36" s="1" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3" t="n">
@@ -5221,10 +5221,10 @@
         <v>28</v>
       </c>
       <c r="BL36" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BM36" s="4" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -5383,7 +5383,7 @@
         <v>20</v>
       </c>
       <c r="BC37" s="1" t="n">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="BD37" s="3"/>
       <c r="BE37" s="3" t="n">
@@ -5410,10 +5410,10 @@
         <v>27</v>
       </c>
       <c r="BL37" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BM37" s="4" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="BM38" s="4" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -5691,7 +5691,7 @@
         <v>33</v>
       </c>
       <c r="BC39" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3" t="n">
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="BM39" s="4" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -5872,7 +5872,7 @@
         <v>22</v>
       </c>
       <c r="BC40" s="1" t="n">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3" t="n">
@@ -5899,10 +5899,10 @@
         <v>29</v>
       </c>
       <c r="BL40" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BM40" s="4" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -6047,7 +6047,7 @@
         <v>19</v>
       </c>
       <c r="BC41" s="1" t="n">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3" t="n">
@@ -6074,10 +6074,10 @@
         <v>36</v>
       </c>
       <c r="BL41" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BM41" s="4" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -6256,7 +6256,7 @@
         <v>59</v>
       </c>
       <c r="BC42" s="1" t="n">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="BD42" s="3"/>
       <c r="BE42" s="3" t="n">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="4" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -6449,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="BC43" s="1" t="n">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="BD43" s="3"/>
       <c r="BE43" s="3" t="n">
@@ -6476,10 +6476,10 @@
         <v>14</v>
       </c>
       <c r="BL43" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM43" s="4" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -6636,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="BC44" s="1" t="n">
-        <v>422</v>
+        <v>127</v>
       </c>
       <c r="BD44" s="3"/>
       <c r="BE44" s="3" t="n">
@@ -6663,10 +6663,10 @@
         <v>21</v>
       </c>
       <c r="BL44" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM44" s="4" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="BM45" s="4" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -6945,10 +6945,10 @@
         <v>29</v>
       </c>
       <c r="BL46" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BM46" s="4" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -7138,10 +7138,10 @@
         <v>14</v>
       </c>
       <c r="BL47" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM47" s="4" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -7298,7 +7298,7 @@
         <v>8</v>
       </c>
       <c r="BC48" s="1" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BD48" s="3"/>
       <c r="BE48" s="3" t="n">
@@ -7325,10 +7325,10 @@
         <v>21</v>
       </c>
       <c r="BL48" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM48" s="4" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -7479,7 +7479,7 @@
         <v>14</v>
       </c>
       <c r="BC49" s="1" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="BD49" s="3"/>
       <c r="BE49" s="3" t="n">
@@ -7506,10 +7506,4329 @@
         <v>29</v>
       </c>
       <c r="BL49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM49" s="4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+      <c r="A50" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>46028.867673611</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH50" s="2" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="AI50" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="AO50" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="AP50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX50" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA50" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB50" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC50" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3" t="n">
+        <v>46028.876770833</v>
+      </c>
+      <c r="BF50" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ50" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK50" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BL50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM50" s="4" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="A51" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>46029.514513889</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>3003</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>62.5</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO51" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="AP51" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ51" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR51" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS51" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT51" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU51" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV51" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW51" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX51" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="AY51" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ51" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA51" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB51" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="BM49" s="4" t="n">
-        <v>0.78</v>
+      <c r="BC51" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3" t="n">
+        <v>46029.521388889</v>
+      </c>
+      <c r="BF51" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ51" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK51" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM51" s="4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="A52" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>46029.560833333</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO52" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="AP52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS52" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT52" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV52" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX52" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY52" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ52" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB52" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC52" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3" t="n">
+        <v>46029.564155093</v>
+      </c>
+      <c r="BF52" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ52" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK52" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM52" s="4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+      <c r="A53" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>46029.645358796</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>78,75</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="2" t="inlineStr">
+        <is>
+          <t>ADHD</t>
+        </is>
+      </c>
+      <c r="AE53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO53" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP53" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT53" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU53" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX53" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ53" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB53" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC53" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3" t="n">
+        <v>46029.646944444</v>
+      </c>
+      <c r="BF53" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI53" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ53" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK53" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BL53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM53" s="4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="A54" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>46029.647199074</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>3004</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="AO54" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS54" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT54" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU54" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX54" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="AY54" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA54" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB54" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC54" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3" t="n">
+        <v>46029.650960648</v>
+      </c>
+      <c r="BF54" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ54" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK54" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM54" s="4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+      <c r="A55" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>46029.655706019</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO55" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD55" s="3"/>
+      <c r="BE55" s="3" t="n">
+        <v>46029.6559375</v>
+      </c>
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK55" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BL55" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BM55" s="4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+      <c r="A56" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>46029.725439815</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>3010</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="2" t="inlineStr">
+        <is>
+          <t>Tired</t>
+        </is>
+      </c>
+      <c r="AI56" s="2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO56" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP56" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS56" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT56" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU56" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV56" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW56" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX56" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY56" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ56" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA56" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB56" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC56" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="BD56" s="3"/>
+      <c r="BE56" s="3" t="n">
+        <v>46029.727650463</v>
+      </c>
+      <c r="BF56" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ56" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK56" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BL56" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM56" s="4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+      <c r="A57" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>46029.730173611</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD57" s="2" t="inlineStr">
+        <is>
+          <t>bipolar</t>
+        </is>
+      </c>
+      <c r="AE57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH57" s="2" t="inlineStr">
+        <is>
+          <t>fatigue</t>
+        </is>
+      </c>
+      <c r="AI57" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO57" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="AP57" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ57" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS57" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT57" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU57" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV57" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW57" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX57" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AY57" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ57" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA57" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB57" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC57" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="BD57" s="3"/>
+      <c r="BE57" s="3" t="n">
+        <v>46029.733726852</v>
+      </c>
+      <c r="BF57" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI57" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ57" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK57" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="BL57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM57" s="4" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="A58" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>46029.792222222</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>57,5</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="1" t="n">
+        <v>2624</v>
+      </c>
+      <c r="AO58" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP58" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ58" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR58" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS58" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT58" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV58" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW58" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX58" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY58" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ58" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA58" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC58" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="BD58" s="3"/>
+      <c r="BE58" s="3" t="n">
+        <v>46029.824583333</v>
+      </c>
+      <c r="BF58" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI58" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ58" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK58" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM58" s="4" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="A59" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>46029.968171296</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO59" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT59" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU59" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW59" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX59" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY59" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA59" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB59" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC59" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3" t="n">
+        <v>46029.969513889</v>
+      </c>
+      <c r="BF59" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI59" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ59" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK59" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL59" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM59" s="4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+      <c r="A60" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>46030.648402778</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="X60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin Chinesisch</t>
+        </is>
+      </c>
+      <c r="AJ60" s="2" t="inlineStr">
+        <is>
+          <t>Englisch</t>
+        </is>
+      </c>
+      <c r="AK60" s="2" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO60" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS60" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT60" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX60" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AY60" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC60" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="BD60" s="3"/>
+      <c r="BE60" s="3" t="n">
+        <v>46030.650011574</v>
+      </c>
+      <c r="BF60" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI60" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ60" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK60" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="BL60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM60" s="4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+      <c r="A61" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>46030.654918981</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2" t="inlineStr">
+        <is>
+          <t>german</t>
+        </is>
+      </c>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO61" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="AP61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT61" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV61" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX61" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY61" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ61" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB61" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC61" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="BD61" s="3"/>
+      <c r="BE61" s="3" t="n">
+        <v>46030.66056713</v>
+      </c>
+      <c r="BF61" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ61" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK61" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM61" s="4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+      <c r="A62" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>46030.681979167</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="2"/>
+      <c r="AN62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO62" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT62" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU62" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX62" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY62" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA62" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC62" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="BD62" s="3"/>
+      <c r="BE62" s="3" t="n">
+        <v>46030.683090278</v>
+      </c>
+      <c r="BF62" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ62" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK62" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM62" s="4" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+      <c r="A63" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>46030.744490741</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO63" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP63" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT63" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX63" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB63" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="BD63" s="3"/>
+      <c r="BE63" s="3" t="n">
+        <v>46030.745555556</v>
+      </c>
+      <c r="BF63" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI63" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ63" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK63" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="BL63" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BM63" s="4" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+      <c r="A64" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>46030.744837963</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="2"/>
+      <c r="AN64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3" t="n">
+        <v>46030.744895833</v>
+      </c>
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM64" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+      <c r="A65" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>46030.748148148</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="2"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP65" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT65" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU65" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV65" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX65" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ65" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA65" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC65" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="BD65" s="3"/>
+      <c r="BE65" s="3" t="n">
+        <v>46030.750532407</v>
+      </c>
+      <c r="BF65" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK65" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM65" s="4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+      <c r="A66" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>46030.757789352</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AM66" s="2"/>
+      <c r="AN66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO66" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC66" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="BD66" s="3"/>
+      <c r="BE66" s="3" t="n">
+        <v>46030.759016204</v>
+      </c>
+      <c r="BF66" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK66" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM66" s="4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+      <c r="A67" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>46030.767361111</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>61.25</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="2"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="AO67" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC67" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="BD67" s="3"/>
+      <c r="BE67" s="3" t="n">
+        <v>46030.773657407</v>
+      </c>
+      <c r="BF67" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI67" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ67" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK67" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM67" s="4" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+      <c r="A68" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>46030.880335648</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="2"/>
+      <c r="AN68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO68" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BD68" s="3"/>
+      <c r="BE68" s="3" t="n">
+        <v>46030.881168981</v>
+      </c>
+      <c r="BF68" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI68" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ68" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK68" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM68" s="4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+      <c r="A69" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>46030.89505787</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>62.5</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO69" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP69" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT69" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC69" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BD69" s="3"/>
+      <c r="BE69" s="3" t="n">
+        <v>46030.895729167</v>
+      </c>
+      <c r="BF69" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI69" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ69" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK69" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="BL69" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BM69" s="4" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+      <c r="A70" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>46030.901712963</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="2"/>
+      <c r="AN70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP70" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU70" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC70" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="BD70" s="3"/>
+      <c r="BE70" s="3" t="n">
+        <v>46030.902627315</v>
+      </c>
+      <c r="BF70" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK70" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM70" s="4" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+      <c r="A71" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>46030.909270833</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="2"/>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO71" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD71" s="3"/>
+      <c r="BE71" s="3" t="n">
+        <v>46030.909479167</v>
+      </c>
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM71" s="4" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+      <c r="A72" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>46030.909803241</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ72" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="2"/>
+      <c r="AN72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO72" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ72" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX72" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD72" s="3"/>
+      <c r="BE72" s="3" t="n">
+        <v>46030.910439815</v>
+      </c>
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI72" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ72" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK72" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="BL72" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM72" s="4" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+      <c r="A73" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>46030.910590278</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ73" s="2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
+      <c r="AM73" s="2"/>
+      <c r="AN73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO73" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP73" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT73" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW73" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX73" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC73" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BD73" s="3"/>
+      <c r="BE73" s="3" t="n">
+        <v>46030.911296296</v>
+      </c>
+      <c r="BF73" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ73" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK73" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="BL73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM73" s="4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+      <c r="A74" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>IndiDiff</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>46030.917407407</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="2"/>
+      <c r="AM74" s="2"/>
+      <c r="AN74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO74" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT74" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX74" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC74" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BD74" s="3"/>
+      <c r="BE74" s="3" t="n">
+        <v>46030.91818287</v>
+      </c>
+      <c r="BF74" s="2" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="BG74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI74" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ74" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK74" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL74" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM74" s="4" t="n">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
